--- a/final.xlsx
+++ b/final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
   <si>
     <t>Installment No.</t>
   </si>
@@ -44,190 +44,298 @@
     <t>1</t>
   </si>
   <si>
-    <t>24 Jul 22</t>
-  </si>
-  <si>
-    <t>8973.727656512503</t>
+    <t>27 Jul 22</t>
+  </si>
+  <si>
+    <t>4754.420694549732</t>
   </si>
   <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>7977.563272950859</t>
+    <t>3758.256310988088</t>
   </si>
   <si>
     <t>996.1643835616438</t>
   </si>
   <si>
-    <t>101000.0</t>
-  </si>
-  <si>
-    <t>93022.43672704913</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>24 Aug 22</t>
-  </si>
-  <si>
-    <t>8025.663369869701</t>
-  </si>
-  <si>
-    <t>948.064286642802</t>
-  </si>
-  <si>
-    <t>84996.77335717944</t>
+    <t>27 Aug 22</t>
+  </si>
+  <si>
+    <t>3763.354156130213</t>
+  </si>
+  <si>
+    <t>991.0665384195187</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>24 Sep 22</t>
-  </si>
-  <si>
-    <t>8107.459171885907</t>
-  </si>
-  <si>
-    <t>866.268484626596</t>
-  </si>
-  <si>
-    <t>76889.31418529354</t>
+    <t>27 Sep 22</t>
+  </si>
+  <si>
+    <t>3801.7094368447456</t>
+  </si>
+  <si>
+    <t>952.711257704986</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>24 Oct 22</t>
-  </si>
-  <si>
-    <t>8215.367297424677</t>
-  </si>
-  <si>
-    <t>758.3603590878266</t>
-  </si>
-  <si>
-    <t>68673.94688786886</t>
+    <t>27 Oct 22</t>
+  </si>
+  <si>
+    <t>3869.938370314847</t>
+  </si>
+  <si>
+    <t>884.482324234885</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>24 Nov 22</t>
-  </si>
-  <si>
-    <t>8273.817841655318</t>
-  </si>
-  <si>
-    <t>699.9098148571841</t>
-  </si>
-  <si>
-    <t>60400.129046213544</t>
+    <t>27 Nov 22</t>
+  </si>
+  <si>
+    <t>3879.8971898382624</t>
+  </si>
+  <si>
+    <t>874.5235047114692</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>24 Dec 22</t>
-  </si>
-  <si>
-    <t>8378.000356330671</t>
-  </si>
-  <si>
-    <t>595.7273001818321</t>
-  </si>
-  <si>
-    <t>52022.12868988287</t>
+    <t>27 Dec 22</t>
+  </si>
+  <si>
+    <t>3946.3751046067678</t>
+  </si>
+  <si>
+    <t>808.0455899429638</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>24 Jan 23</t>
-  </si>
-  <si>
-    <t>8443.529523015615</t>
-  </si>
-  <si>
-    <t>530.1981334968883</t>
-  </si>
-  <si>
-    <t>43578.59916686725</t>
+    <t>27 Jan 23</t>
+  </si>
+  <si>
+    <t>3959.660841715894</t>
+  </si>
+  <si>
+    <t>794.7598528338377</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>24 Feb 23</t>
-  </si>
-  <si>
-    <t>8529.584125277583</t>
-  </si>
-  <si>
-    <t>444.143531234921</t>
-  </si>
-  <si>
-    <t>35049.015041589664</t>
+    <t>27 Feb 23</t>
+  </si>
+  <si>
+    <t>4000.016837143793</t>
+  </si>
+  <si>
+    <t>754.4038574059385</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>24 Mar 23</t>
-  </si>
-  <si>
-    <t>8651.08466873239</t>
-  </si>
-  <si>
-    <t>322.64298778011306</t>
-  </si>
-  <si>
-    <t>26397.930372857274</t>
+    <t>27 Mar 23</t>
+  </si>
+  <si>
+    <t>4109.845734856245</t>
+  </si>
+  <si>
+    <t>644.5749596934862</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>24 Apr 23</t>
-  </si>
-  <si>
-    <t>8704.685736000094</t>
-  </si>
-  <si>
-    <t>269.04192051240835</t>
-  </si>
-  <si>
-    <t>17693.24463685718</t>
+    <t>27 Apr 23</t>
+  </si>
+  <si>
+    <t>4082.670778973492</t>
+  </si>
+  <si>
+    <t>671.7499155762396</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>24 May 23</t>
-  </si>
-  <si>
-    <t>8799.218942285966</t>
-  </si>
-  <si>
-    <t>174.50871422653657</t>
-  </si>
-  <si>
-    <t>8894.025694571214</t>
+    <t>27 May 23</t>
+  </si>
+  <si>
+    <t>4144.6075689088675</t>
+  </si>
+  <si>
+    <t>609.8131256408644</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>24 Jun 23</t>
-  </si>
-  <si>
-    <t>8984.671655074788</t>
-  </si>
-  <si>
-    <t>90.64596050357511</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>27 Jun 23</t>
+  </si>
+  <si>
+    <t>4166.5213966560195</t>
+  </si>
+  <si>
+    <t>587.8992978937125</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>27 Jul 23</t>
+  </si>
+  <si>
+    <t>4226.5803477473155</t>
+  </si>
+  <si>
+    <t>527.8403468024163</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>27 Aug 23</t>
+  </si>
+  <si>
+    <t>4252.062050051034</t>
+  </si>
+  <si>
+    <t>502.35864449869774</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>27 Sep 23</t>
+  </si>
+  <si>
+    <t>4295.3981345063485</t>
+  </si>
+  <si>
+    <t>459.022560043383</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>27 Oct 23</t>
+  </si>
+  <si>
+    <t>4352.570884504294</t>
+  </si>
+  <si>
+    <t>401.8498100454384</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27 Nov 23</t>
+  </si>
+  <si>
+    <t>4383.536339302841</t>
+  </si>
+  <si>
+    <t>370.884355246891</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>27 Dec 23</t>
+  </si>
+  <si>
+    <t>4438.735229725405</t>
+  </si>
+  <si>
+    <t>315.68546482432686</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>27 Jan 24</t>
+  </si>
+  <si>
+    <t>4473.450997485814</t>
+  </si>
+  <si>
+    <t>280.96969706391815</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>27 Feb 24</t>
+  </si>
+  <si>
+    <t>4519.043429569779</t>
+  </si>
+  <si>
+    <t>235.3772649799532</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>27 Mar 24</t>
+  </si>
+  <si>
+    <t>4577.3147339106845</t>
+  </si>
+  <si>
+    <t>177.10596063904703</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27 Apr 24</t>
+  </si>
+  <si>
+    <t>4611.7515182496345</t>
+  </si>
+  <si>
+    <t>142.66917630009752</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>27 May 24</t>
+  </si>
+  <si>
+    <t>4661.83951814236</t>
+  </si>
+  <si>
+    <t>92.5811764073715</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27 Jun 24</t>
+  </si>
+  <si>
+    <t>4773.01785885234</t>
+  </si>
+  <si>
+    <t>4724.863089827251</t>
+  </si>
+  <si>
+    <t>48.1547690250887</t>
   </si>
 </sst>
 </file>
@@ -272,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,80 +437,68 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -411,27 +507,23 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -440,27 +532,23 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -469,27 +557,23 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -498,27 +582,23 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -527,27 +607,23 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -556,27 +632,23 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -585,27 +657,23 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -614,46 +682,338 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="157">
   <si>
     <t>Installment Computation Formula</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>1254</t>
+    <t>100000</t>
   </si>
   <si>
     <t>Day Count Convention</t>
@@ -47,265 +47,439 @@
     <t>Tenure</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Due Date on</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Advance / Arrears</t>
+  </si>
+  <si>
+    <t>Arrear</t>
+  </si>
+  <si>
+    <t>Account Open Date</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>Finance Fees</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Disbursement Date</t>
+  </si>
+  <si>
+    <t>Stage Based Schedule</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Installment Frequency</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>First Repayment after Disbursement</t>
+  </si>
+  <si>
+    <t>Disbursement Amount</t>
+  </si>
+  <si>
+    <t>Installment No.</t>
+  </si>
+  <si>
+    <t>Stage Number</t>
+  </si>
+  <si>
+    <t>Installment Due Date</t>
+  </si>
+  <si>
+    <t>Installment Amount</t>
+  </si>
+  <si>
+    <t>Component 1 (Principal)</t>
+  </si>
+  <si>
+    <t>Component 2 (Interest)</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>Closing Balance</t>
+  </si>
+  <si>
+    <t>10 Jul 22</t>
+  </si>
+  <si>
+    <t>4707.347222326467</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>3721.0458524634532</t>
+  </si>
+  <si>
+    <t>986.3013698630136</t>
+  </si>
+  <si>
+    <t>100000.0</t>
+  </si>
+  <si>
+    <t>96278.95414753654</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10 Aug 22</t>
+  </si>
+  <si>
+    <t>3726.0932238913</t>
+  </si>
+  <si>
+    <t>981.2539984351669</t>
+  </si>
+  <si>
+    <t>92552.86092364525</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10 Sep 22</t>
+  </si>
+  <si>
+    <t>3764.0687493512332</t>
+  </si>
+  <si>
+    <t>943.2784729752336</t>
+  </si>
+  <si>
+    <t>88788.79217429401</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10 Oct 22</t>
+  </si>
+  <si>
+    <t>3831.622148826581</t>
+  </si>
+  <si>
+    <t>875.725073499886</t>
+  </si>
+  <si>
+    <t>84957.17002546742</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10 Nov 22</t>
+  </si>
+  <si>
+    <t>3841.4823661764976</t>
+  </si>
+  <si>
+    <t>865.8648561499693</t>
+  </si>
+  <si>
+    <t>81115.68765929092</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10 Dec 22</t>
+  </si>
+  <si>
+    <t>3907.3020837690774</t>
+  </si>
+  <si>
+    <t>800.0451385573898</t>
+  </si>
+  <si>
+    <t>77208.38557552185</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10 Jan 23</t>
+  </si>
+  <si>
+    <t>3920.456278926628</t>
+  </si>
+  <si>
+    <t>786.8909433998391</t>
+  </si>
+  <si>
+    <t>73287.92929659522</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10 Feb 23</t>
+  </si>
+  <si>
+    <t>3960.4127100433598</t>
+  </si>
+  <si>
+    <t>746.9345122831073</t>
+  </si>
+  <si>
+    <t>69327.51658655186</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10 Mar 23</t>
+  </si>
+  <si>
+    <t>4069.154192926976</t>
+  </si>
+  <si>
+    <t>638.1930293994913</t>
+  </si>
+  <si>
+    <t>65258.36239362489</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10 Apr 23</t>
+  </si>
+  <si>
+    <t>4042.2482960133584</t>
+  </si>
+  <si>
+    <t>665.0989263131084</t>
+  </si>
+  <si>
+    <t>61216.114097611535</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10 May 23</t>
+  </si>
+  <si>
+    <t>4103.571850404819</t>
+  </si>
+  <si>
+    <t>603.775371921648</t>
+  </si>
+  <si>
+    <t>57112.542247206715</t>
+  </si>
+  <si>
+    <t>10 Jun 23</t>
+  </si>
+  <si>
+    <t>4125.268709560415</t>
+  </si>
+  <si>
+    <t>582.078512766052</t>
+  </si>
+  <si>
+    <t>52987.2735376463</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10 Jul 23</t>
+  </si>
+  <si>
+    <t>4184.7330175716</t>
+  </si>
+  <si>
+    <t>522.6142047548675</t>
+  </si>
+  <si>
+    <t>48802.540520074705</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10 Aug 23</t>
+  </si>
+  <si>
+    <t>4209.962425793103</t>
+  </si>
+  <si>
+    <t>497.38479653336407</t>
+  </si>
+  <si>
+    <t>44592.578094281605</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10 Sep 23</t>
+  </si>
+  <si>
+    <t>4252.869440105295</t>
+  </si>
+  <si>
+    <t>454.4777822211714</t>
+  </si>
+  <si>
+    <t>40339.70865417631</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10 Oct 23</t>
+  </si>
+  <si>
+    <t>4309.476123271577</t>
+  </si>
+  <si>
+    <t>397.8710990548896</t>
+  </si>
+  <si>
+    <t>36030.23253090474</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10 Nov 23</t>
+  </si>
+  <si>
+    <t>4340.134989408753</t>
+  </si>
+  <si>
+    <t>367.21223291771406</t>
+  </si>
+  <si>
+    <t>31690.097541495983</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>Due Date on</t>
-  </si>
-  <si>
-    <t>Anniversary</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>Advance / Arrears</t>
-  </si>
-  <si>
-    <t>Arrear</t>
-  </si>
-  <si>
-    <t>Account Open Date</t>
-  </si>
-  <si>
-    <t>2022-06-29</t>
-  </si>
-  <si>
-    <t>Finance Fees</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Disbursement Date</t>
-  </si>
-  <si>
-    <t>Stage Based Schedule</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Installment Frequency</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>First Repayment after Disbursement</t>
-  </si>
-  <si>
-    <t>Disbursement Amount</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Installment No.</t>
-  </si>
-  <si>
-    <t>Stage Number</t>
-  </si>
-  <si>
-    <t>Installment Due Date</t>
-  </si>
-  <si>
-    <t>Installment Amount</t>
-  </si>
-  <si>
-    <t>Component 1 (Principal)</t>
-  </si>
-  <si>
-    <t>Component 2 (Interest)</t>
-  </si>
-  <si>
-    <t>Opening Balance</t>
-  </si>
-  <si>
-    <t>Closing Balance</t>
-  </si>
-  <si>
-    <t>29 Jul 22</t>
-  </si>
-  <si>
-    <t>122.43363079875475</t>
-  </si>
-  <si>
-    <t>108.84239792204242</t>
-  </si>
-  <si>
-    <t>13.591232876712327</t>
-  </si>
-  <si>
-    <t>1378.0</t>
-  </si>
-  <si>
-    <t>1269.1576020779576</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>29 Aug 22</t>
-  </si>
-  <si>
-    <t>109.49865468990542</t>
-  </si>
-  <si>
-    <t>12.934976108849321</t>
-  </si>
-  <si>
-    <t>1159.6589473880522</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>29 Sep 22</t>
-  </si>
-  <si>
-    <t>110.61464097879981</t>
-  </si>
-  <si>
-    <t>11.818989819954941</t>
-  </si>
-  <si>
-    <t>1049.0443064092524</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>29 Oct 22</t>
-  </si>
-  <si>
-    <t>112.08689243417034</t>
-  </si>
-  <si>
-    <t>10.346738364584406</t>
-  </si>
-  <si>
-    <t>936.9574139750821</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>29 Nov 22</t>
-  </si>
-  <si>
-    <t>112.8843661960498</t>
-  </si>
-  <si>
-    <t>9.549264602704946</t>
-  </si>
-  <si>
-    <t>824.0730477790323</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>29 Dec 22</t>
-  </si>
-  <si>
-    <t>114.30578703983826</t>
-  </si>
-  <si>
-    <t>8.127843758916482</t>
-  </si>
-  <si>
-    <t>709.7672607391941</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>29 Jan 23</t>
-  </si>
-  <si>
-    <t>115.1998384427279</t>
-  </si>
-  <si>
-    <t>7.2337923560268536</t>
-  </si>
-  <si>
-    <t>594.5674222964661</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>28 Feb 23</t>
-  </si>
-  <si>
-    <t>116.5694041678855</t>
-  </si>
-  <si>
-    <t>5.864226630869254</t>
-  </si>
-  <si>
-    <t>477.9980181285806</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>28 Mar 23</t>
-  </si>
-  <si>
-    <t>118.03342986474918</t>
-  </si>
-  <si>
-    <t>4.400200934005564</t>
-  </si>
-  <si>
-    <t>359.96458826383144</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28 Apr 23</t>
-  </si>
-  <si>
-    <t>118.76495061151789</t>
-  </si>
-  <si>
-    <t>3.6686801872368573</t>
-  </si>
-  <si>
-    <t>241.19963765231356</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>28 May 23</t>
-  </si>
-  <si>
-    <t>120.05467546848536</t>
-  </si>
-  <si>
-    <t>2.378955330269394</t>
-  </si>
-  <si>
-    <t>121.1449621838282</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>28 Jun 23</t>
-  </si>
-  <si>
-    <t>122.37964508608529</t>
-  </si>
-  <si>
-    <t>1.2346829022570982</t>
+    <t>10 Dec 23</t>
+  </si>
+  <si>
+    <t>4394.787356163767</t>
+  </si>
+  <si>
+    <t>312.5598661627001</t>
+  </si>
+  <si>
+    <t>27295.310185332215</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>10 Jan 24</t>
+  </si>
+  <si>
+    <t>4429.1594034513</t>
+  </si>
+  <si>
+    <t>278.18781887516667</t>
+  </si>
+  <si>
+    <t>22866.150781880915</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10 Feb 24</t>
+  </si>
+  <si>
+    <t>4474.300425316613</t>
+  </si>
+  <si>
+    <t>233.04679700985477</t>
+  </si>
+  <si>
+    <t>18391.850356564304</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>10 Mar 24</t>
+  </si>
+  <si>
+    <t>4531.9947860501825</t>
+  </si>
+  <si>
+    <t>175.35243627628435</t>
+  </si>
+  <si>
+    <t>13859.855570514123</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10 Apr 24</t>
+  </si>
+  <si>
+    <t>4566.090612128351</t>
+  </si>
+  <si>
+    <t>141.25661019811653</t>
+  </si>
+  <si>
+    <t>9293.764958385771</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>10 May 24</t>
+  </si>
+  <si>
+    <t>4615.682691230059</t>
+  </si>
+  <si>
+    <t>91.6645310964076</t>
+  </si>
+  <si>
+    <t>4678.082267155712</t>
+  </si>
+  <si>
+    <t>10 Jun 24</t>
+  </si>
+  <si>
+    <t>4725.760256289463</t>
+  </si>
+  <si>
+    <t>47.67798913375136</t>
   </si>
   <si>
     <t>0.0</t>
@@ -353,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -484,36 +658,36 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>36</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -524,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>40</v>
@@ -556,10 +730,10 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
@@ -585,10 +759,10 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -614,10 +788,10 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>56</v>
@@ -643,10 +817,10 @@
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>61</v>
@@ -672,10 +846,10 @@
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>66</v>
@@ -701,10 +875,10 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>71</v>
@@ -730,10 +904,10 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -759,10 +933,10 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
@@ -788,10 +962,10 @@
         <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
         <v>86</v>
@@ -817,10 +991,10 @@
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
         <v>91</v>
@@ -837,31 +1011,379 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" t="s">
-        <v>97</v>
       </c>
       <c r="H30" t="s">
         <v>93</v>
       </c>
       <c r="I30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" t="s">
+        <v>152</v>
+      </c>
+      <c r="I42" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
